--- a/data/state/oesm17st/field_descriptions.xlsx
+++ b/data/state/oesm17st/field_descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/Downloads/oesm17st/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/Downloads/Data Science/p8105_Final_Project/data/state/oesm17st/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A5999-909E-EA45-8CD0-FCCDF53F32BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91391B49-E9AC-CE49-BCD4-A44D09BD949C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="1580" windowWidth="24580" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field_descriptions" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -401,13 +401,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -794,10 +797,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
@@ -822,7 +825,7 @@
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -939,10 +942,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" s="7" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>66</v>
       </c>
     </row>
